--- a/Darkness of Planet/Darkness of Planet/Darkness of Planet/Data/Script/ObjectList.xlsx
+++ b/Darkness of Planet/Darkness of Planet/Darkness of Planet/Data/Script/ObjectList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="18">
   <si>
     <t>S_R_T</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,39 +87,8 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0/0/5</t>
+    <t>0/0/0</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5/0/10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10/0/15</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>15/0/20</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>20/0/25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5/0/11</t>
-  </si>
-  <si>
-    <t>10/0/16</t>
-  </si>
-  <si>
-    <t>15/0/21</t>
-  </si>
-  <si>
-    <t>20/0/26</t>
-  </si>
-  <si>
-    <t>5/0/12</t>
   </si>
   <si>
     <t>[end]</t>
@@ -130,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,6 +110,14 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
@@ -169,8 +146,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -487,247 +467,2961 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:J130"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E17" activeCellId="1" sqref="A23 A1:XFD1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
+      <selection activeCell="E106" sqref="E105:E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15.09765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.19921875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17" customWidth="1"/>
+    <col min="1" max="1" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17" style="1" customWidth="1"/>
+    <col min="4" max="4" width="9.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="B3" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A5" t="s">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A6" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A7" t="s">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A7" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s">
+      <c r="B8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A9" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A10" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="1" t="str">
+        <f>H10&amp;"/"&amp;I10&amp;"/"&amp;-J10</f>
+        <v>513/0/-15</v>
+      </c>
+      <c r="H10" s="1">
+        <v>513</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A11" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" t="s">
-        <v>1</v>
-      </c>
-      <c r="B11" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="D11" s="1" t="str">
+        <f t="shared" ref="D11:D74" si="0">H11&amp;"/"&amp;I11&amp;"/"&amp;-J11</f>
+        <v>513/0/-30</v>
+      </c>
+      <c r="H11" s="1">
+        <v>513</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>513/0/-45</v>
+      </c>
+      <c r="H12" s="1">
+        <v>513</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>513/0/-60</v>
+      </c>
+      <c r="H13" s="1">
+        <v>513</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A14" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>513/0/-75</v>
+      </c>
+      <c r="H14" s="1">
+        <v>513</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A15" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>513/0/-90</v>
+      </c>
+      <c r="H15" s="1">
+        <v>513</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>513/0/-105</v>
+      </c>
+      <c r="H16" s="1">
+        <v>513</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>513/0/-120</v>
+      </c>
+      <c r="H17" s="1">
+        <v>513</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>513/0/-135</v>
+      </c>
+      <c r="H18" s="1">
+        <v>513</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A19" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>513/0/-150</v>
+      </c>
+      <c r="H19" s="1">
+        <v>513</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A20" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>513/0/-165</v>
+      </c>
+      <c r="H20" s="1">
+        <v>513</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A21" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>513/0/-180</v>
+      </c>
+      <c r="H21" s="1">
+        <v>513</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0</v>
+      </c>
+      <c r="J21" s="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>513/0/-195</v>
+      </c>
+      <c r="H22" s="1">
+        <v>513</v>
+      </c>
+      <c r="I22" s="1">
+        <v>0</v>
+      </c>
+      <c r="J22" s="1">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>513/0/-210</v>
+      </c>
+      <c r="H23" s="1">
+        <v>513</v>
+      </c>
+      <c r="I23" s="1">
+        <v>0</v>
+      </c>
+      <c r="J23" s="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A24" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>513/0/-225</v>
+      </c>
+      <c r="H24" s="1">
+        <v>513</v>
+      </c>
+      <c r="I24" s="1">
+        <v>0</v>
+      </c>
+      <c r="J24" s="1">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>513/0/-240</v>
+      </c>
+      <c r="H25" s="1">
+        <v>513</v>
+      </c>
+      <c r="I25" s="1">
+        <v>0</v>
+      </c>
+      <c r="J25" s="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A26" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>513/0/-255</v>
+      </c>
+      <c r="H26" s="1">
+        <v>513</v>
+      </c>
+      <c r="I26" s="1">
+        <v>0</v>
+      </c>
+      <c r="J26" s="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>513/0/-270</v>
+      </c>
+      <c r="H27" s="1">
+        <v>513</v>
+      </c>
+      <c r="I27" s="1">
+        <v>0</v>
+      </c>
+      <c r="J27" s="1">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A28" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>513/0/-285</v>
+      </c>
+      <c r="H28" s="1">
+        <v>513</v>
+      </c>
+      <c r="I28" s="1">
+        <v>0</v>
+      </c>
+      <c r="J28" s="1">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>513/0/-300</v>
+      </c>
+      <c r="H29" s="1">
+        <v>513</v>
+      </c>
+      <c r="I29" s="1">
+        <v>0</v>
+      </c>
+      <c r="J29" s="1">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A30" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>513/0/-315</v>
+      </c>
+      <c r="H30" s="1">
+        <v>513</v>
+      </c>
+      <c r="I30" s="1">
+        <v>0</v>
+      </c>
+      <c r="J30" s="1">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A31" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>513/0/-330</v>
+      </c>
+      <c r="H31" s="1">
+        <v>513</v>
+      </c>
+      <c r="I31" s="1">
+        <v>0</v>
+      </c>
+      <c r="J31" s="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A32" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>513/0/-345</v>
+      </c>
+      <c r="H32" s="1">
+        <v>513</v>
+      </c>
+      <c r="I32" s="1">
+        <v>0</v>
+      </c>
+      <c r="J32" s="1">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A33" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>513/0/-360</v>
+      </c>
+      <c r="H33" s="1">
+        <v>513</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>513/0/-375</v>
+      </c>
+      <c r="H34" s="1">
+        <v>513</v>
+      </c>
+      <c r="I34" s="1">
+        <v>0</v>
+      </c>
+      <c r="J34" s="1">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A35" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>513/0/-390</v>
+      </c>
+      <c r="H35" s="1">
+        <v>513</v>
+      </c>
+      <c r="I35" s="1">
+        <v>0</v>
+      </c>
+      <c r="J35" s="1">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>513/0/-405</v>
+      </c>
+      <c r="H36" s="1">
+        <v>513</v>
+      </c>
+      <c r="I36" s="1">
+        <v>0</v>
+      </c>
+      <c r="J36" s="1">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>513/0/-420</v>
+      </c>
+      <c r="H37" s="1">
+        <v>513</v>
+      </c>
+      <c r="I37" s="1">
+        <v>0</v>
+      </c>
+      <c r="J37" s="1">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A38" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>513/0/-435</v>
+      </c>
+      <c r="H38" s="1">
+        <v>513</v>
+      </c>
+      <c r="I38" s="1">
+        <v>0</v>
+      </c>
+      <c r="J38" s="1">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A39" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>513/0/-450</v>
+      </c>
+      <c r="H39" s="1">
+        <v>513</v>
+      </c>
+      <c r="I39" s="1">
+        <v>0</v>
+      </c>
+      <c r="J39" s="1">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>513/0/-465</v>
+      </c>
+      <c r="H40" s="1">
+        <v>513</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0</v>
+      </c>
+      <c r="J40" s="1">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A41" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>513/0/-480</v>
+      </c>
+      <c r="H41" s="1">
+        <v>513</v>
+      </c>
+      <c r="I41" s="1">
+        <v>0</v>
+      </c>
+      <c r="J41" s="1">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A42" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>513/0/-495</v>
+      </c>
+      <c r="H42" s="1">
+        <v>513</v>
+      </c>
+      <c r="I42" s="1">
+        <v>0</v>
+      </c>
+      <c r="J42" s="1">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A43" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>513/0/-510</v>
+      </c>
+      <c r="H43" s="1">
+        <v>513</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0</v>
+      </c>
+      <c r="J43" s="1">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A44" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>0/0/-513</v>
+      </c>
+      <c r="H44" s="1">
+        <v>0</v>
+      </c>
+      <c r="I44" s="1">
+        <v>0</v>
+      </c>
+      <c r="J44" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A45" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C45" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>15/0/-513</v>
+      </c>
+      <c r="H45" s="1">
+        <v>15</v>
+      </c>
+      <c r="I45" s="1">
+        <v>0</v>
+      </c>
+      <c r="J45" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A46" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C46" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>30/0/-513</v>
+      </c>
+      <c r="H46" s="1">
+        <v>30</v>
+      </c>
+      <c r="I46" s="1">
+        <v>0</v>
+      </c>
+      <c r="J46" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A47" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>45/0/-513</v>
+      </c>
+      <c r="H47" s="1">
+        <v>45</v>
+      </c>
+      <c r="I47" s="1">
+        <v>0</v>
+      </c>
+      <c r="J47" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A48" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>60/0/-513</v>
+      </c>
+      <c r="H48" s="1">
+        <v>60</v>
+      </c>
+      <c r="I48" s="1">
+        <v>0</v>
+      </c>
+      <c r="J48" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A49" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>75/0/-513</v>
+      </c>
+      <c r="H49" s="1">
+        <v>75</v>
+      </c>
+      <c r="I49" s="1">
+        <v>0</v>
+      </c>
+      <c r="J49" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A50" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>90/0/-513</v>
+      </c>
+      <c r="H50" s="1">
+        <v>90</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0</v>
+      </c>
+      <c r="J50" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A51" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>105/0/-513</v>
+      </c>
+      <c r="H51" s="1">
+        <v>105</v>
+      </c>
+      <c r="I51" s="1">
+        <v>0</v>
+      </c>
+      <c r="J51" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A52" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>120/0/-513</v>
+      </c>
+      <c r="H52" s="1">
+        <v>120</v>
+      </c>
+      <c r="I52" s="1">
+        <v>0</v>
+      </c>
+      <c r="J52" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A53" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C53" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>135/0/-513</v>
+      </c>
+      <c r="H53" s="1">
+        <v>135</v>
+      </c>
+      <c r="I53" s="1">
+        <v>0</v>
+      </c>
+      <c r="J53" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A54" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C54" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>150/0/-513</v>
+      </c>
+      <c r="H54" s="1">
+        <v>150</v>
+      </c>
+      <c r="I54" s="1">
+        <v>0</v>
+      </c>
+      <c r="J54" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A55" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>165/0/-513</v>
+      </c>
+      <c r="H55" s="1">
+        <v>165</v>
+      </c>
+      <c r="I55" s="1">
+        <v>0</v>
+      </c>
+      <c r="J55" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A56" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>180/0/-513</v>
+      </c>
+      <c r="H56" s="1">
+        <v>180</v>
+      </c>
+      <c r="I56" s="1">
+        <v>0</v>
+      </c>
+      <c r="J56" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A57" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C57" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>195/0/-513</v>
+      </c>
+      <c r="H57" s="1">
+        <v>195</v>
+      </c>
+      <c r="I57" s="1">
+        <v>0</v>
+      </c>
+      <c r="J57" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A58" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>210/0/-513</v>
+      </c>
+      <c r="H58" s="1">
+        <v>210</v>
+      </c>
+      <c r="I58" s="1">
+        <v>0</v>
+      </c>
+      <c r="J58" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A59" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>225/0/-513</v>
+      </c>
+      <c r="H59" s="1">
+        <v>225</v>
+      </c>
+      <c r="I59" s="1">
+        <v>0</v>
+      </c>
+      <c r="J59" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A60" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D60" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>240/0/-513</v>
+      </c>
+      <c r="H60" s="1">
+        <v>240</v>
+      </c>
+      <c r="I60" s="1">
+        <v>0</v>
+      </c>
+      <c r="J60" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A61" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C61" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D61" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>255/0/-513</v>
+      </c>
+      <c r="H61" s="1">
+        <v>255</v>
+      </c>
+      <c r="I61" s="1">
+        <v>0</v>
+      </c>
+      <c r="J61" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A62" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C62" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D62" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>270/0/-513</v>
+      </c>
+      <c r="H62" s="1">
+        <v>270</v>
+      </c>
+      <c r="I62" s="1">
+        <v>0</v>
+      </c>
+      <c r="J62" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A63" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D63" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>285/0/-513</v>
+      </c>
+      <c r="H63" s="1">
+        <v>285</v>
+      </c>
+      <c r="I63" s="1">
+        <v>0</v>
+      </c>
+      <c r="J63" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A64" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C64" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D64" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>300/0/-513</v>
+      </c>
+      <c r="H64" s="1">
+        <v>300</v>
+      </c>
+      <c r="I64" s="1">
+        <v>0</v>
+      </c>
+      <c r="J64" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A65" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D65" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>315/0/-513</v>
+      </c>
+      <c r="H65" s="1">
+        <v>315</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0</v>
+      </c>
+      <c r="J65" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A66" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C66" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D66" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>330/0/-513</v>
+      </c>
+      <c r="H66" s="1">
+        <v>330</v>
+      </c>
+      <c r="I66" s="1">
+        <v>0</v>
+      </c>
+      <c r="J66" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A67" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D67" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>345/0/-513</v>
+      </c>
+      <c r="H67" s="1">
+        <v>345</v>
+      </c>
+      <c r="I67" s="1">
+        <v>0</v>
+      </c>
+      <c r="J67" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A68" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D68" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>360/0/-513</v>
+      </c>
+      <c r="H68" s="1">
+        <v>360</v>
+      </c>
+      <c r="I68" s="1">
+        <v>0</v>
+      </c>
+      <c r="J68" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A69" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C69" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D69" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>375/0/-513</v>
+      </c>
+      <c r="H69" s="1">
+        <v>375</v>
+      </c>
+      <c r="I69" s="1">
+        <v>0</v>
+      </c>
+      <c r="J69" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A70" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D70" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>390/0/-513</v>
+      </c>
+      <c r="H70" s="1">
+        <v>390</v>
+      </c>
+      <c r="I70" s="1">
+        <v>0</v>
+      </c>
+      <c r="J70" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A71" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C71" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D71" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>405/0/-513</v>
+      </c>
+      <c r="H71" s="1">
+        <v>405</v>
+      </c>
+      <c r="I71" s="1">
+        <v>0</v>
+      </c>
+      <c r="J71" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A72" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C72" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D72" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>420/0/-513</v>
+      </c>
+      <c r="H72" s="1">
+        <v>420</v>
+      </c>
+      <c r="I72" s="1">
+        <v>0</v>
+      </c>
+      <c r="J72" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A73" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D73" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>435/0/-513</v>
+      </c>
+      <c r="H73" s="1">
+        <v>435</v>
+      </c>
+      <c r="I73" s="1">
+        <v>0</v>
+      </c>
+      <c r="J73" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A74" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D74" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>450/0/-513</v>
+      </c>
+      <c r="H74" s="1">
+        <v>450</v>
+      </c>
+      <c r="I74" s="1">
+        <v>0</v>
+      </c>
+      <c r="J74" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A75" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C75" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D75" s="1" t="str">
+        <f t="shared" ref="D75:D129" si="1">H75&amp;"/"&amp;I75&amp;"/"&amp;-J75</f>
+        <v>465/0/-513</v>
+      </c>
+      <c r="H75" s="1">
+        <v>465</v>
+      </c>
+      <c r="I75" s="1">
+        <v>0</v>
+      </c>
+      <c r="J75" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A76" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C76" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D76" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>480/0/-513</v>
+      </c>
+      <c r="H76" s="1">
+        <v>480</v>
+      </c>
+      <c r="I76" s="1">
+        <v>0</v>
+      </c>
+      <c r="J76" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A77" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C77" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D77" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>495/0/-513</v>
+      </c>
+      <c r="H77" s="1">
+        <v>495</v>
+      </c>
+      <c r="I77" s="1">
+        <v>0</v>
+      </c>
+      <c r="J77" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D78" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>510/0/-513</v>
+      </c>
+      <c r="H78" s="1">
+        <v>510</v>
+      </c>
+      <c r="I78" s="1">
+        <v>0</v>
+      </c>
+      <c r="J78" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C79" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D79" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>525/0/-513</v>
+      </c>
+      <c r="H79" s="1">
+        <v>525</v>
+      </c>
+      <c r="I79" s="1">
+        <v>0</v>
+      </c>
+      <c r="J79" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C80" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D80" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>540/0/-513</v>
+      </c>
+      <c r="H80" s="1">
+        <v>540</v>
+      </c>
+      <c r="I80" s="1">
+        <v>0</v>
+      </c>
+      <c r="J80" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C81" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D81" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>555/0/-513</v>
+      </c>
+      <c r="H81" s="1">
+        <v>555</v>
+      </c>
+      <c r="I81" s="1">
+        <v>0</v>
+      </c>
+      <c r="J81" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D82" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>570/0/-513</v>
+      </c>
+      <c r="H82" s="1">
+        <v>570</v>
+      </c>
+      <c r="I82" s="1">
+        <v>0</v>
+      </c>
+      <c r="J82" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D83" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>585/0/-513</v>
+      </c>
+      <c r="H83" s="1">
+        <v>585</v>
+      </c>
+      <c r="I83" s="1">
+        <v>0</v>
+      </c>
+      <c r="J83" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C84" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D84" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>600/0/-513</v>
+      </c>
+      <c r="H84" s="1">
+        <v>600</v>
+      </c>
+      <c r="I84" s="1">
+        <v>0</v>
+      </c>
+      <c r="J84" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C85" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D85" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>615/0/-513</v>
+      </c>
+      <c r="H85" s="1">
+        <v>615</v>
+      </c>
+      <c r="I85" s="1">
+        <v>0</v>
+      </c>
+      <c r="J85" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D86" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>630/0/-513</v>
+      </c>
+      <c r="H86" s="1">
+        <v>630</v>
+      </c>
+      <c r="I86" s="1">
+        <v>0</v>
+      </c>
+      <c r="J86" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D87" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>645/0/-513</v>
+      </c>
+      <c r="H87" s="1">
+        <v>645</v>
+      </c>
+      <c r="I87" s="1">
+        <v>0</v>
+      </c>
+      <c r="J87" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C88" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D88" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>660/0/-513</v>
+      </c>
+      <c r="H88" s="1">
+        <v>660</v>
+      </c>
+      <c r="I88" s="1">
+        <v>0</v>
+      </c>
+      <c r="J88" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C89" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D89" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>675/0/-513</v>
+      </c>
+      <c r="H89" s="1">
+        <v>675</v>
+      </c>
+      <c r="I89" s="1">
+        <v>0</v>
+      </c>
+      <c r="J89" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A90" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D90" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>690/0/-513</v>
+      </c>
+      <c r="H90" s="1">
+        <v>690</v>
+      </c>
+      <c r="I90" s="1">
+        <v>0</v>
+      </c>
+      <c r="J90" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A91" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D91" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>705/0/-513</v>
+      </c>
+      <c r="H91" s="1">
+        <v>705</v>
+      </c>
+      <c r="I91" s="1">
+        <v>0</v>
+      </c>
+      <c r="J91" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A92" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C92" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D92" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>720/0/-513</v>
+      </c>
+      <c r="H92" s="1">
+        <v>720</v>
+      </c>
+      <c r="I92" s="1">
+        <v>0</v>
+      </c>
+      <c r="J92" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A93" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C93" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D93" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>735/0/-513</v>
+      </c>
+      <c r="H93" s="1">
+        <v>735</v>
+      </c>
+      <c r="I93" s="1">
+        <v>0</v>
+      </c>
+      <c r="J93" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A94" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C94" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D94" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>750/0/-513</v>
+      </c>
+      <c r="H94" s="1">
+        <v>750</v>
+      </c>
+      <c r="I94" s="1">
+        <v>0</v>
+      </c>
+      <c r="J94" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A95" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C95" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D95" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>765/0/-513</v>
+      </c>
+      <c r="H95" s="1">
+        <v>765</v>
+      </c>
+      <c r="I95" s="1">
+        <v>0</v>
+      </c>
+      <c r="J95" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A96" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C96" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D96" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>780/0/-513</v>
+      </c>
+      <c r="H96" s="1">
+        <v>780</v>
+      </c>
+      <c r="I96" s="1">
+        <v>0</v>
+      </c>
+      <c r="J96" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A97" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C97" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D97" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>795/0/-513</v>
+      </c>
+      <c r="H97" s="1">
+        <v>795</v>
+      </c>
+      <c r="I97" s="1">
+        <v>0</v>
+      </c>
+      <c r="J97" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A98" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C98" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D98" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>810/0/-513</v>
+      </c>
+      <c r="H98" s="1">
+        <v>810</v>
+      </c>
+      <c r="I98" s="1">
+        <v>0</v>
+      </c>
+      <c r="J98" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A99" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C99" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>825/0/-513</v>
+      </c>
+      <c r="H99" s="1">
+        <v>825</v>
+      </c>
+      <c r="I99" s="1">
+        <v>0</v>
+      </c>
+      <c r="J99" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A100" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D100" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>840/0/-513</v>
+      </c>
+      <c r="H100" s="1">
+        <v>840</v>
+      </c>
+      <c r="I100" s="1">
+        <v>0</v>
+      </c>
+      <c r="J100" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C101" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D101" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>855/0/-513</v>
+      </c>
+      <c r="H101" s="1">
+        <v>855</v>
+      </c>
+      <c r="I101" s="1">
+        <v>0</v>
+      </c>
+      <c r="J101" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A102" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C102" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D102" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>870/0/-513</v>
+      </c>
+      <c r="H102" s="1">
+        <v>870</v>
+      </c>
+      <c r="I102" s="1">
+        <v>0</v>
+      </c>
+      <c r="J102" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A103" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D103" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>885/0/-513</v>
+      </c>
+      <c r="H103" s="1">
+        <v>885</v>
+      </c>
+      <c r="I103" s="1">
+        <v>0</v>
+      </c>
+      <c r="J103" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A104" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C104" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D104" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>900/0/-513</v>
+      </c>
+      <c r="H104" s="1">
+        <v>900</v>
+      </c>
+      <c r="I104" s="1">
+        <v>0</v>
+      </c>
+      <c r="J104" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A105" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D105" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>915/0/-513</v>
+      </c>
+      <c r="H105" s="1">
+        <v>915</v>
+      </c>
+      <c r="I105" s="1">
+        <v>0</v>
+      </c>
+      <c r="J105" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A106" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C106" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D106" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>930/0/-513</v>
+      </c>
+      <c r="H106" s="1">
+        <v>930</v>
+      </c>
+      <c r="I106" s="1">
+        <v>0</v>
+      </c>
+      <c r="J106" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A107" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C107" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D107" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>945/0/-513</v>
+      </c>
+      <c r="H107" s="1">
+        <v>945</v>
+      </c>
+      <c r="I107" s="1">
+        <v>0</v>
+      </c>
+      <c r="J107" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A108" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C108" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D108" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>960/0/-513</v>
+      </c>
+      <c r="H108" s="1">
+        <v>960</v>
+      </c>
+      <c r="I108" s="1">
+        <v>0</v>
+      </c>
+      <c r="J108" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A109" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C109" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D109" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>975/0/-513</v>
+      </c>
+      <c r="H109" s="1">
+        <v>975</v>
+      </c>
+      <c r="I109" s="1">
+        <v>0</v>
+      </c>
+      <c r="J109" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A110" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C110" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D110" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>990/0/-513</v>
+      </c>
+      <c r="H110" s="1">
+        <v>990</v>
+      </c>
+      <c r="I110" s="1">
+        <v>0</v>
+      </c>
+      <c r="J110" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A111" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D111" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1005/0/-513</v>
+      </c>
+      <c r="H111" s="1">
+        <v>1005</v>
+      </c>
+      <c r="I111" s="1">
+        <v>0</v>
+      </c>
+      <c r="J111" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A112" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D112" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>1020/0/-513</v>
+      </c>
+      <c r="H112" s="1">
+        <v>1020</v>
+      </c>
+      <c r="I112" s="1">
+        <v>0</v>
+      </c>
+      <c r="J112" s="1">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A113" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C113" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D113" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>257/0/-276</v>
+      </c>
+      <c r="H113" s="1">
+        <v>257</v>
+      </c>
+      <c r="I113" s="1">
+        <v>0</v>
+      </c>
+      <c r="J113" s="1">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A114" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C114" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D114" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>767/0/-272</v>
+      </c>
+      <c r="H114" s="1">
+        <v>767</v>
+      </c>
+      <c r="I114" s="1">
+        <v>0</v>
+      </c>
+      <c r="J114" s="1">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A115" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C115" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D115" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>250/0/-787</v>
+      </c>
+      <c r="H115" s="1">
+        <v>250</v>
+      </c>
+      <c r="I115" s="1">
+        <v>0</v>
+      </c>
+      <c r="J115" s="1">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A116" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C116" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D116" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>764/0/-778</v>
+      </c>
+      <c r="H116" s="1">
+        <v>764</v>
+      </c>
+      <c r="I116" s="1">
+        <v>0</v>
+      </c>
+      <c r="J116" s="1">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A117" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C117" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D117" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>837/0/-320</v>
+      </c>
+      <c r="H117" s="1">
+        <v>837</v>
+      </c>
+      <c r="I117" s="1">
+        <v>0</v>
+      </c>
+      <c r="J117" s="1">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A118" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C118" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D118" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>827/0/-344</v>
+      </c>
+      <c r="H118" s="1">
+        <v>827</v>
+      </c>
+      <c r="I118" s="1">
+        <v>0</v>
+      </c>
+      <c r="J118" s="1">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A119" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C119" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D119" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>817/0/-368</v>
+      </c>
+      <c r="H119" s="1">
+        <v>817</v>
+      </c>
+      <c r="I119" s="1">
+        <v>0</v>
+      </c>
+      <c r="J119" s="1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A120" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D120" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>807/0/-392</v>
+      </c>
+      <c r="H120" s="1">
+        <v>807</v>
+      </c>
+      <c r="I120" s="1">
+        <v>0</v>
+      </c>
+      <c r="J120" s="1">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A121" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C121" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D121" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>75/0/-590</v>
+      </c>
+      <c r="H121" s="1">
+        <v>75</v>
+      </c>
+      <c r="I121" s="1">
+        <v>0</v>
+      </c>
+      <c r="J121" s="1">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A122" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C122" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D122" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>97/0/-607</v>
+      </c>
+      <c r="H122" s="1">
+        <v>97</v>
+      </c>
+      <c r="I122" s="1">
+        <v>0</v>
+      </c>
+      <c r="J122" s="1">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A123" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C123" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D123" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>119/0/-624</v>
+      </c>
+      <c r="H123" s="1">
+        <v>119</v>
+      </c>
+      <c r="I123" s="1">
+        <v>0</v>
+      </c>
+      <c r="J123" s="1">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A124" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C124" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D124" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>141/0/-633</v>
+      </c>
+      <c r="H124" s="1">
+        <v>141</v>
+      </c>
+      <c r="I124" s="1">
+        <v>0</v>
+      </c>
+      <c r="J124" s="1">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A125" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C125" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D125" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>163/0/-642</v>
+      </c>
+      <c r="H125" s="1">
+        <v>163</v>
+      </c>
+      <c r="I125" s="1">
+        <v>0</v>
+      </c>
+      <c r="J125" s="1">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A126" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C126" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D126" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>185/0/-651</v>
+      </c>
+      <c r="H126" s="1">
+        <v>185</v>
+      </c>
+      <c r="I126" s="1">
+        <v>0</v>
+      </c>
+      <c r="J126" s="1">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A127" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C127" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D127" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>207/0/-660</v>
+      </c>
+      <c r="H127" s="1">
+        <v>207</v>
+      </c>
+      <c r="I127" s="1">
+        <v>0</v>
+      </c>
+      <c r="J127" s="1">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A128" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C128" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D128" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>229/0/-669</v>
+      </c>
+      <c r="H128" s="1">
+        <v>229</v>
+      </c>
+      <c r="I128" s="1">
+        <v>0</v>
+      </c>
+      <c r="J128" s="1">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A129" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C129" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D129" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>251/0/-678</v>
+      </c>
+      <c r="H129" s="1">
+        <v>251</v>
+      </c>
+      <c r="I129" s="1">
+        <v>0</v>
+      </c>
+      <c r="J129" s="1">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
+      <c r="A130" s="1" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C12" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s">
-        <v>2</v>
-      </c>
-      <c r="C14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B15" t="s">
-        <v>2</v>
-      </c>
-      <c r="C15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s">
-        <v>2</v>
-      </c>
-      <c r="C16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A17" t="s">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s">
-        <v>2</v>
-      </c>
-      <c r="C17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A18" t="s">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s">
-        <v>2</v>
-      </c>
-      <c r="C18" t="s">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" t="s">
-        <v>4</v>
-      </c>
-      <c r="D19" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D20" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A21" t="s">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" t="s">
-        <v>4</v>
-      </c>
-      <c r="D21" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/Darkness of Planet/Darkness of Planet/Darkness of Planet/Data/Script/ObjectList.xlsx
+++ b/Darkness of Planet/Darkness of Planet/Darkness of Planet/Data/Script/ObjectList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="371" uniqueCount="17">
   <si>
     <t>S_R_T</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -88,10 +88,6 @@
   </si>
   <si>
     <t>0/0/0</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>[end]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J130"/>
+  <dimension ref="A1:J129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" workbookViewId="0">
-      <selection activeCell="E106" sqref="E105:E106"/>
+    <sheetView tabSelected="1" topLeftCell="A117" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -3419,11 +3415,6 @@
         <v>678</v>
       </c>
     </row>
-    <row r="130" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A130" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Darkness of Planet/Darkness of Planet/Darkness of Planet/Data/Script/ObjectList.xlsx
+++ b/Darkness of Planet/Darkness of Planet/Darkness of Planet/Data/Script/ObjectList.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="683" uniqueCount="224">
   <si>
     <t>S_R_T</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -422,6 +422,432 @@
   <si>
     <t>0/-0.00840543/0/-0.999965</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>object/xFile/SpaceShip/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spaceship.X</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spaceship_2.X</t>
+  </si>
+  <si>
+    <t>0.09/0.09/0.09</t>
+  </si>
+  <si>
+    <t>0.0772888/-0.337601/-0.0802575/-0.934672</t>
+  </si>
+  <si>
+    <t>472.324/52.1/-193.844</t>
+  </si>
+  <si>
+    <t>0.05/0.05/0.05</t>
+  </si>
+  <si>
+    <t>143.115/505.619/-182.989</t>
+  </si>
+  <si>
+    <t>0.31/0.31/0.31</t>
+  </si>
+  <si>
+    <t>0.0923839/0.953031/0.277931/0.0771412</t>
+  </si>
+  <si>
+    <t>513.591/-18.7997/-512.728</t>
+  </si>
+  <si>
+    <t>0.08/0.08/0.08</t>
+  </si>
+  <si>
+    <t>398.103/23/-283.016</t>
+  </si>
+  <si>
+    <t>352.424/29.2878/-258.213</t>
+  </si>
+  <si>
+    <t>0.01/0.01/0.01</t>
+  </si>
+  <si>
+    <t>434.757/37/-261.433</t>
+  </si>
+  <si>
+    <t>450.029/37/-251.665</t>
+  </si>
+  <si>
+    <t>480.509/37/-247.832</t>
+  </si>
+  <si>
+    <t>0.149438/0/0/0.988771</t>
+  </si>
+  <si>
+    <t>396.584/36.3/-232.58</t>
+  </si>
+  <si>
+    <t>379.558/36.3/-217.207</t>
+  </si>
+  <si>
+    <t>0.134561/-0.0650005/0.430081/0.890336</t>
+  </si>
+  <si>
+    <t>398.352/34.7/-182.031</t>
+  </si>
+  <si>
+    <t>0.277604/-0.101333/0.327583/0.897417</t>
+  </si>
+  <si>
+    <t>428.163/32.5/-140.689</t>
+  </si>
+  <si>
+    <t>593.602/32.5/-151.105</t>
+  </si>
+  <si>
+    <t>581.4/32.5/-102.886</t>
+  </si>
+  <si>
+    <t>162.188/37.2/-545.087</t>
+  </si>
+  <si>
+    <t>210.5/37.2/-470.086</t>
+  </si>
+  <si>
+    <t>212.647/30.8/-454.315</t>
+  </si>
+  <si>
+    <t>23.5317/31.5/-450.024</t>
+  </si>
+  <si>
+    <t>5.98729/31.5/-532.555</t>
+  </si>
+  <si>
+    <t>0.02/0.02/0.02</t>
+  </si>
+  <si>
+    <t>21.0865/31.5/-397.773</t>
+  </si>
+  <si>
+    <t>26.3307/31.5/-366.456</t>
+  </si>
+  <si>
+    <t>344.745/44.5/-384.942</t>
+  </si>
+  <si>
+    <t>330.629/45.5/-332.022</t>
+  </si>
+  <si>
+    <t>334.862/45.5/-341.754</t>
+  </si>
+  <si>
+    <t>333.907/45.5/-347.107</t>
+  </si>
+  <si>
+    <t>334.802/45.3627/-357.076</t>
+  </si>
+  <si>
+    <t>339.073/45/-368.653</t>
+  </si>
+  <si>
+    <t>342.525/44.5/-378.539</t>
+  </si>
+  <si>
+    <t>196.648/31.5/-457.265</t>
+  </si>
+  <si>
+    <t>201.242/31.5/-474.576</t>
+  </si>
+  <si>
+    <t>351.753/33/-223.558</t>
+  </si>
+  <si>
+    <t>350.212/35.2676/-235.748</t>
+  </si>
+  <si>
+    <t>0.225445/-0.911737/-0.336999/-0.0658888</t>
+  </si>
+  <si>
+    <t>348.59/35.2048/-232.455</t>
+  </si>
+  <si>
+    <t>0.184718/-0.774282/-0.590342/-0.133653</t>
+  </si>
+  <si>
+    <t>337.104/41.5/-242.717</t>
+  </si>
+  <si>
+    <t>80.3525/36.4/-117.552</t>
+  </si>
+  <si>
+    <t>86.4644/36.4/-189.916</t>
+  </si>
+  <si>
+    <t>0.263741/0.719319/0.127364/-0.62992</t>
+  </si>
+  <si>
+    <t>45.2021/36.4/-238.202</t>
+  </si>
+  <si>
+    <t>-0.522687/0/0/0.852525</t>
+  </si>
+  <si>
+    <t>-0.0716161/-0.713772/0.0695546/0.693226</t>
+  </si>
+  <si>
+    <t>-0.0497295/-0.00498956/-0.0997087/0.993761</t>
+  </si>
+  <si>
+    <t>-0.0412496/0.0282204/0.563937/0.824304</t>
+  </si>
+  <si>
+    <t>-0.564673/-0.823539/-0.0295135/0.0453559</t>
+  </si>
+  <si>
+    <t>-0.193573/-0.919032/-0.332109/0.0872536</t>
+  </si>
+  <si>
+    <t>-0.0691079/0.669024/0.0327409/-0.739296</t>
+  </si>
+  <si>
+    <t>-0.0563456/0.420666/0.0517014/-0.903987</t>
+  </si>
+  <si>
+    <t>index</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.470652/-0.227351/0.370819/0.767653</t>
+  </si>
+  <si>
+    <t>490.09/34.7/-116.616</t>
+  </si>
+  <si>
+    <t>460.388/34.7/-120.179</t>
+  </si>
+  <si>
+    <t>440.398/34.7/-166.424</t>
+  </si>
+  <si>
+    <t>-0.0418968/0.151535/0.0568156/0.985928</t>
+  </si>
+  <si>
+    <t>459.672/37.3/-278.623</t>
+  </si>
+  <si>
+    <t>345.646/46.8/-315.389</t>
+  </si>
+  <si>
+    <t>-0.0703357/0.640698/-0.00602117/0.764541</t>
+  </si>
+  <si>
+    <t>352.213/50.5935/-361.728</t>
+  </si>
+  <si>
+    <t>-0.0686461/0.519252/-0.0164644/0.851701</t>
+  </si>
+  <si>
+    <t>355.625/48.7/-406.705</t>
+  </si>
+  <si>
+    <t>-0.0198747/-0.48042/-0.0677374/0.874193</t>
+  </si>
+  <si>
+    <t>265.476/37.2/-508.334</t>
+  </si>
+  <si>
+    <t>226.78/37.2/-506.565</t>
+  </si>
+  <si>
+    <t>187.685/37.2/-500.302</t>
+  </si>
+  <si>
+    <t>151.468/37.2/-482.249</t>
+  </si>
+  <si>
+    <t>0.512794/0.437068/0.426427/-0.603469</t>
+  </si>
+  <si>
+    <t>211.319/37.9/-469.455</t>
+  </si>
+  <si>
+    <t>0.0907262/0.675712/0.419329/-0.599454</t>
+  </si>
+  <si>
+    <t>239.881/49.5407/-321.56</t>
+  </si>
+  <si>
+    <t>-0.196717/0.658693/-0.451179/-0.56909</t>
+  </si>
+  <si>
+    <t>300.661/50.7693/-282.338</t>
+  </si>
+  <si>
+    <t>317.773/47.6/-266.683</t>
+  </si>
+  <si>
+    <t>0.293631/-0.954167/0.0563447/-0.0130965</t>
+  </si>
+  <si>
+    <t>685.609/20.6/-515.174</t>
+  </si>
+  <si>
+    <t>0.0649592/0.370622/0.0276343/0.926097</t>
+  </si>
+  <si>
+    <t>310.703/31.2/-9.92079</t>
+  </si>
+  <si>
+    <t>-0.0462385/-0.439605/-0.132653/0.887137</t>
+  </si>
+  <si>
+    <t>870.958/34.1212/-788.928</t>
+  </si>
+  <si>
+    <t>0.029774/0.344388/-0.0640067/0.93617</t>
+  </si>
+  <si>
+    <t>587.959/20.6/-682.918</t>
+  </si>
+  <si>
+    <t>608.639/20.6/-683.28</t>
+  </si>
+  <si>
+    <t>611.796/20.6/-658.538</t>
+  </si>
+  <si>
+    <t>-0.0563545/0.341048/-0.293629/0.891231</t>
+  </si>
+  <si>
+    <t>647.052/20.6/-543.163</t>
+  </si>
+  <si>
+    <t>0.0684368/0.855509/-0.0173134/0.512953</t>
+  </si>
+  <si>
+    <t>350.058/31.2/-18.7536</t>
+  </si>
+  <si>
+    <t>392.046/31.2/-21.404</t>
+  </si>
+  <si>
+    <t>0.0702244/0.62775/0.00720322/0.775207</t>
+  </si>
+  <si>
+    <t>281.843/31.2/-7.79158</t>
+  </si>
+  <si>
+    <t>221.829/31.2/-14.8684</t>
+  </si>
+  <si>
+    <t>-0.209816/0.595801/-0.330702/0.701166</t>
+  </si>
+  <si>
+    <t>168.173/31.2/-21.0001</t>
+  </si>
+  <si>
+    <t>-0.0872665/0.625609/-0.18481/0.75289</t>
+  </si>
+  <si>
+    <t>147.061/31.2/-44.4785</t>
+  </si>
+  <si>
+    <t>79.1361/31.2/-53.1097</t>
+  </si>
+  <si>
+    <t>565.125/30.6/-694.054</t>
+  </si>
+  <si>
+    <t>0.00906895/-0.750371/-0.140187/0.645917</t>
+  </si>
+  <si>
+    <t>569.683/30.6/-681.533</t>
+  </si>
+  <si>
+    <t>-0.113064/0.138094/-0.0833748/0.980406</t>
+  </si>
+  <si>
+    <t>575.93/26.6/-665.14</t>
+  </si>
+  <si>
+    <t>585.062/26.6/-659.069</t>
+  </si>
+  <si>
+    <t>0.07/0.07/0.07</t>
+  </si>
+  <si>
+    <t>0.0213602/-0.426847/0.0451847/-0.902942</t>
+  </si>
+  <si>
+    <t>942.293/35.4/-508.973</t>
+  </si>
+  <si>
+    <t>949.561/35.4/-619.571</t>
+  </si>
+  <si>
+    <t>957.937/35.4/-772.733</t>
+  </si>
+  <si>
+    <t>930.89/35.4/-901.191</t>
+  </si>
+  <si>
+    <t>-0.426343/-0.0987836/-0.17528/-0.881901</t>
+  </si>
+  <si>
+    <t>598.439/35.4/-967.743</t>
+  </si>
+  <si>
+    <t>0.51/0.51/0.51</t>
+  </si>
+  <si>
+    <t>-0.0423728/-0.143242/0.0564614/-0.987167</t>
+  </si>
+  <si>
+    <t>457.221/36/-567.843</t>
+  </si>
+  <si>
+    <t>0.389418/0/0/0.921061</t>
+  </si>
+  <si>
+    <t>241.332/41.8694/-871.593</t>
+  </si>
+  <si>
+    <t>-0.111413/-0.427759/0.00140895/0.896999</t>
+  </si>
+  <si>
+    <t>84.9273/37/-688.872</t>
+  </si>
+  <si>
+    <t>500.678/37/-833.413</t>
+  </si>
+  <si>
+    <t>0.0310987/-0.944744/0.0633737/-0.320118</t>
+  </si>
+  <si>
+    <t>930.604/36.4/-436.501</t>
+  </si>
+  <si>
+    <t>928.634/35.4/-481.231</t>
+  </si>
+  <si>
+    <t>0.0989681/0.189823/-0.641818/0.736371</t>
+  </si>
+  <si>
+    <t>41.506/31.4/-70.4363</t>
+  </si>
+  <si>
+    <t>81.7209/31.4/-72.1464</t>
+  </si>
+  <si>
+    <t>0.247515/0.308533/-0.616058/0.681187</t>
+  </si>
+  <si>
+    <t>207.348/31.4/-20.6997</t>
+  </si>
+  <si>
+    <t>0.427783/0.0298551/-0.398735/0.81063</t>
+  </si>
+  <si>
+    <t>13.859/31.4/-349.021</t>
   </si>
 </sst>
 </file>
@@ -475,7 +901,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -483,6 +909,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -799,17 +1231,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I175"/>
+  <dimension ref="A1:I279"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D178" sqref="D178"/>
+    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="15.09765625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.19921875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="20.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.796875" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="21.3984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.796875" style="1"/>
   </cols>
@@ -1251,7 +1683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" s="1" t="s">
         <v>3</v>
       </c>
@@ -1259,17 +1691,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" s="1" t="s">
         <v>9</v>
       </c>
@@ -1277,7 +1709,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" s="1" t="s">
         <v>2</v>
       </c>
@@ -1285,7 +1717,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" s="1" t="s">
         <v>3</v>
       </c>
@@ -1293,17 +1725,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" s="1" t="s">
         <v>9</v>
       </c>
@@ -1311,7 +1743,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
         <v>2</v>
       </c>
@@ -1319,7 +1751,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
         <v>3</v>
       </c>
@@ -1327,893 +1759,1070 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A78" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B78" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A79" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A80" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A81" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A82" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A83" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B83" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A84" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A85" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A86" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A87" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A78" s="1" t="s">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A88" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B78" s="1">
+      <c r="B88" s="1">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" ht="13.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A79" s="1" t="s">
+      <c r="I88" s="1" t="str">
+        <f>B4</f>
+        <v>object/xFile/Tree/</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A89" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A80" s="2" t="s">
+      <c r="I89" s="1" t="str">
+        <f>B5</f>
+        <v>Tree_02.X</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A90" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A91" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A92" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A93" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A94" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A95" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A96" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A97" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A98" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A99" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A100" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A101" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A102" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A103" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A104" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A105" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A106" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D106" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A107" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D107" s="1" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A108" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D108" s="1" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A109" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A110" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D110" s="1" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A111" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A112" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D112" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A113" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D113" s="1" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A114" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D114" s="1" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A115" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D115" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A116" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="D116" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A117" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A118" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="D118" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A119" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D119" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A120" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A121" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A122" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="D122" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A123" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D123" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A124" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D124" s="1" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A125" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D125" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A126" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D126" s="1" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A127" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D127" s="1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" ht="13.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A128" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="D128" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A129" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H80" s="2" t="str">
+      <c r="H129" s="2" t="str">
         <f>""</f>
         <v/>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A81" s="1" t="s">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A130" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A82" s="1" t="s">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A131" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B82" s="1">
+      <c r="B131" s="1">
         <v>1</v>
       </c>
-      <c r="I82" s="1" t="str">
+      <c r="I131" s="1" t="str">
         <f>B9</f>
         <v>object/xFile/Tree/</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A83" s="1" t="s">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A132" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I83" s="1" t="str">
+      <c r="I132" s="1" t="str">
         <f>B10</f>
         <v>Tree_03.X</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A84" s="2" t="s">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A133" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C133" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D133" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A134" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C134" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D134" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A135" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C135" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A136" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C136" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D136" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A137" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C137" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="D137" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A138" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="D138" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A139" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="D139" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A140" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="D140" s="1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A141" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C141" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A142" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C142" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D142" s="1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A143" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C143" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D143" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A144" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C144" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D144" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A145" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C145" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D145" s="1" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A146" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C146" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D146" s="1" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A147" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D147" s="1" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A148" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="D148" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A149" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>211</v>
+      </c>
+      <c r="D149" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A150" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D150" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A151" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="D151" s="1" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A152" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C152" s="3" t="s">
+        <v>199</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A153" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D153" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A154" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C154" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="D154" s="1" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A155" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A156" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="D156" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A157" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A85" s="1" t="s">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A158" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A86" s="1" t="s">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A159" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B86" s="1">
+      <c r="B159" s="1">
         <v>2</v>
       </c>
-      <c r="I86" s="1" t="str">
+      <c r="I159" s="1" t="str">
         <f>B14</f>
         <v>object/xFile/Rock/</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A87" s="1" t="s">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A160" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I87" s="1" t="str">
+      <c r="I160" s="1" t="str">
         <f>B15</f>
         <v>Rock_Stone_01.X</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A88" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A89" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A90" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B90" s="1">
-        <v>3</v>
-      </c>
-      <c r="I90" s="1" t="str">
-        <f>B19</f>
-        <v>object/xFile/Rock/</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A91" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I91" s="1" t="str">
-        <f>B20</f>
-        <v>Rock_Stone_02.X</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A92" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A93" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A94" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B94" s="1">
-        <v>4</v>
-      </c>
-      <c r="I94" s="1" t="str">
-        <f>B24</f>
-        <v>object/xFile/Rock/</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A95" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I95" s="1" t="str">
-        <f>B25</f>
-        <v>Rock_Stone_03.X</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A96" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A97" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A98" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B98" s="1">
-        <v>5</v>
-      </c>
-      <c r="I98" s="1" t="str">
-        <f>B29</f>
-        <v>object/xFile/Rock/</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A99" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I99" s="1" t="str">
-        <f>B30</f>
-        <v>Rock_Stone_04.X</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A100" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A101" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A102" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B102" s="1">
-        <v>6</v>
-      </c>
-      <c r="I102" s="1" t="str">
-        <f>B34</f>
-        <v>object/xFile/Rock/</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A103" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I103" s="1" t="str">
-        <f>B35</f>
-        <v>Rock_wall_01.X</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A104" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B104" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C104" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A105" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A106" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A107" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B107" s="1">
-        <v>7</v>
-      </c>
-      <c r="I107" s="1" t="str">
-        <f>B39</f>
-        <v>object/xFile/Rock/</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A108" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I108" s="1" t="str">
-        <f>B40</f>
-        <v>Rock_wall_02.X</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A109" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C109" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A110" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A111" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A112" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A113" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B113" s="1">
-        <v>8</v>
-      </c>
-      <c r="I113" s="1" t="str">
-        <f>B44</f>
-        <v>object/xFile/Rock/</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A114" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I114" s="1" t="str">
-        <f>B45</f>
-        <v>Rock_wall_03.X</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A115" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B115" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C115" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A116" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A117" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A118" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B118" s="1">
-        <v>9</v>
-      </c>
-      <c r="I118" s="1" t="str">
-        <f>B49</f>
-        <v>object/xFile/Rock/</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A119" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I119" s="1" t="str">
-        <f>B50</f>
-        <v>Rock_wall_04.X</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A120" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B120" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C120" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D120" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A121" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B121" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C121" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D121" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A122" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B122" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C122" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D122" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A123" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B123" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C123" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D123" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A124" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C124" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D124" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A125" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B125" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C125" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D125" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A126" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B126" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C126" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D126" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A127" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A128" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A129" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B129" s="1">
-        <v>10</v>
-      </c>
-      <c r="I129" s="1" t="str">
-        <f>B54</f>
-        <v>object/xFile/Rock/</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A130" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I130" s="1" t="str">
-        <f>B55</f>
-        <v>Rock_wall_05.X</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A131" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B131" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C131" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D131" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A132" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C132" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D132" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A133" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D133" s="1" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A134" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B134" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C134" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D134" s="1" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A135" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C135" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D135" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A136" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C136" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D136" s="1" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A137" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D137" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A138" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C138" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A139" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B139" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C139" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D139" s="1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A140" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B140" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C140" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A141" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A142" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A143" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B143" s="1">
-        <v>11</v>
-      </c>
-      <c r="I143" s="1" t="str">
-        <f>B59</f>
-        <v>object/xFile/Rock/</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A144" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I144" s="1" t="str">
-        <f>B60</f>
-        <v>Rock_wall_06.X</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A145" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C145" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D145" s="1" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A146" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B146" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C146" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D146" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A147" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C147" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="D147" s="1" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A148" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C148" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D148" s="1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A149" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C149" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D149" s="1" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A150" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D150" s="1" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A151" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A152" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A153" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A154" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A155" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B155" s="1">
-        <v>12</v>
-      </c>
-      <c r="I155" s="1" t="str">
-        <f>B64</f>
-        <v>object/xFile/Rock/</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A156" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="I156" s="1" t="str">
-        <f>B65</f>
-        <v>Rock_wall_07.X</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A157" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B157" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="C157" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A158" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C158" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D158" s="1" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A159" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C159" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="D159" s="1" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A160" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C160" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="D160" s="1" t="s">
-        <v>73</v>
-      </c>
-    </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A161" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>62</v>
+        <v>91</v>
+      </c>
+      <c r="C161" s="3" t="s">
+        <v>92</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A162" s="2" t="s">
+      <c r="A162" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C162" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>169</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>75</v>
+        <v>170</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.4">
@@ -2221,13 +2830,13 @@
         <v>27</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="C163" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="C163" s="3" t="s">
+        <v>171</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>76</v>
+        <v>172</v>
       </c>
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.4">
@@ -2245,10 +2854,10 @@
         <v>10</v>
       </c>
       <c r="B166" s="1">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="I166" s="1" t="str">
-        <f>B69</f>
+        <f>B19</f>
         <v>object/xFile/Rock/</v>
       </c>
     </row>
@@ -2257,86 +2866,1245 @@
         <v>0</v>
       </c>
       <c r="I167" s="1" t="str">
+        <f>B20</f>
+        <v>Rock_Stone_02.X</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A168" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C168" s="3" t="str">
+        <f>"-0.0705854/-0.713824/-0.0010308/0.696758"</f>
+        <v>-0.0705854/-0.713824/-0.0010308/0.696758</v>
+      </c>
+      <c r="D168" s="1" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A169" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C169" s="3" t="str">
+        <f>"-0.0705854/-0.713824/-0.0010308/0.696758"</f>
+        <v>-0.0705854/-0.713824/-0.0010308/0.696758</v>
+      </c>
+      <c r="D169" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A170" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D170" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A171" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D171" s="1" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A172" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C172" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D172" s="1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A173" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C173" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="D173" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A174" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C174" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="D174" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A175" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C175" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A176" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C176" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D176" s="1" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A177" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C177" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A178" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C178" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A179" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C179" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A180" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C180" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D180" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A181" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C181" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D181" s="1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A182" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A183" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A184" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B184" s="1">
+        <v>4</v>
+      </c>
+      <c r="I184" s="1" t="str">
+        <f>B24</f>
+        <v>object/xFile/Rock/</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A185" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I185" s="1" t="str">
+        <f>B25</f>
+        <v>Rock_Stone_03.X</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A186" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C186" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A187" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C187" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="D187" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A188" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C188" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D188" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A189" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C189" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="D189" s="1" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A190" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A191" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A192" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B192" s="1">
+        <v>5</v>
+      </c>
+      <c r="I192" s="1" t="str">
+        <f>B29</f>
+        <v>object/xFile/Rock/</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A193" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I193" s="1" t="str">
+        <f>B30</f>
+        <v>Rock_Stone_04.X</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A194" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A195" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A196" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B196" s="1">
+        <v>6</v>
+      </c>
+      <c r="I196" s="1" t="str">
+        <f>B34</f>
+        <v>object/xFile/Rock/</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A197" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I197" s="1" t="str">
+        <f>B35</f>
+        <v>Rock_wall_01.X</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A198" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C198" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D198" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A199" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A200" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A201" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B201" s="1">
+        <v>7</v>
+      </c>
+      <c r="I201" s="1" t="str">
+        <f>B39</f>
+        <v>object/xFile/Rock/</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A202" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I202" s="1" t="str">
+        <f>B40</f>
+        <v>Rock_wall_02.X</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A203" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C203" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A204" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C204" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A205" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A206" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A207" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B207" s="1">
+        <v>8</v>
+      </c>
+      <c r="I207" s="1" t="str">
+        <f>B44</f>
+        <v>object/xFile/Rock/</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A208" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I208" s="1" t="str">
+        <f>B45</f>
+        <v>Rock_wall_03.X</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A209" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C209" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A210" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A211" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A212" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B212" s="1">
+        <v>9</v>
+      </c>
+      <c r="I212" s="1" t="str">
+        <f>B49</f>
+        <v>object/xFile/Rock/</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A213" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I213" s="1" t="str">
+        <f>B50</f>
+        <v>Rock_wall_04.X</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A214" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C214" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D214" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A215" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C215" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D215" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A216" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C216" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D216" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A217" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C217" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D217" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A218" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C218" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D218" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A219" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D219" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A220" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C220" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D220" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A221" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A222" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A223" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B223" s="1">
+        <v>10</v>
+      </c>
+      <c r="I223" s="1" t="str">
+        <f>B54</f>
+        <v>object/xFile/Rock/</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A224" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I224" s="1" t="str">
+        <f>B55</f>
+        <v>Rock_wall_05.X</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A225" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C225" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D225" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A226" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C226" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A227" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C227" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D227" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A228" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C228" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D228" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A229" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C229" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D229" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A230" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C230" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A231" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C231" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D231" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A232" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C232" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D232" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A233" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C233" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A234" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C234" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D234" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A235" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A236" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" ht="16.8" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A237" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B237" s="1">
+        <v>11</v>
+      </c>
+      <c r="I237" s="1" t="str">
+        <f>B59</f>
+        <v>object/xFile/Rock/</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A238" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I238" s="1" t="str">
+        <f>B60</f>
+        <v>Rock_wall_06.X</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A239" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C239" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D239" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A240" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C240" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D240" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A241" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C241" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A242" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C242" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D242" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A243" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C243" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D243" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A244" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C244" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D244" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A245" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C245" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D245" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A246" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C246" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D246" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A247" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A248" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A249" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B249" s="1">
+        <v>12</v>
+      </c>
+      <c r="I249" s="1" t="str">
+        <f>B64</f>
+        <v>object/xFile/Rock/</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A250" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I250" s="1" t="str">
+        <f>B65</f>
+        <v>Rock_wall_07.X</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A251" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C251" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D251" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A252" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C252" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D252" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A253" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C253" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A254" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C254" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="D254" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A255" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C255" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A256" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C256" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D256" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A257" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C257" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D257" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A258" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A259" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A260" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B260" s="1">
+        <v>13</v>
+      </c>
+      <c r="I260" s="1" t="str">
+        <f>B69</f>
+        <v>object/xFile/Rock/</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A261" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I261" s="1" t="str">
         <f>B70</f>
         <v>Rock_wall_08.X</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A168" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B168" s="1" t="s">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A262" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B262" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="C168" s="1" t="s">
+      <c r="C262" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D168" s="1" t="s">
+      <c r="D262" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A169" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B169" s="1" t="s">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A263" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B263" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C169" s="2" t="s">
+      <c r="C263" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="D169" s="1" t="s">
+      <c r="D263" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A170" s="2" t="s">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A264" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A171" s="1" t="s">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A265" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A172" s="1" t="s">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A266" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B172" s="1">
+      <c r="B266" s="1">
         <v>14</v>
       </c>
-      <c r="I172" s="1" t="str">
+      <c r="I266" s="1" t="str">
         <f>B74</f>
         <v>object/xFile/Rock/</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A173" s="1" t="s">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A267" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="I173" s="1" t="str">
+      <c r="I267" s="1" t="str">
         <f>B75</f>
         <v>Rock_wall_09.X</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A174" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B174" s="1" t="s">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A268" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B268" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="C174" s="2" t="s">
+      <c r="C268" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="D174" s="1" t="s">
+      <c r="D268" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
-      <c r="A175" s="2" t="s">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A269" s="2" t="s">
         <v>26</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A270" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A271" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B271" s="1">
+        <v>15</v>
+      </c>
+      <c r="I271" s="1" t="str">
+        <f>B79</f>
+        <v>object/xFile/SpaceShip/</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A272" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I272" s="1" t="str">
+        <f>B80</f>
+        <v>spaceship.X</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A273" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C273" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A274" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A275" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A276" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B276" s="1">
+        <v>16</v>
+      </c>
+      <c r="I276" s="1" t="str">
+        <f>B84</f>
+        <v>object/xFile/SpaceShip/</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A277" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I277" s="1" t="str">
+        <f>B85</f>
+        <v>spaceship_2.X</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A278" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C278" s="4" t="str">
+        <f>"-0.0494954/0.0108823/-0.0503345/-0.997446"</f>
+        <v>-0.0494954/0.0108823/-0.0503345/-0.997446</v>
+      </c>
+      <c r="D278" s="1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A279" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
